--- a/Resources/database_mapping.xlsx
+++ b/Resources/database_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Git\Crowdfunding-ETL\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D06613-F683-4CF6-ABF8-9CE62BA56F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB0143-F047-46DF-9DC3-1CF77614F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39375" yWindow="4155" windowWidth="13590" windowHeight="8790" xr2:uid="{45AB38FA-0D5F-4868-B952-27715728183D}"/>
+    <workbookView xWindow="39960" yWindow="2625" windowWidth="13590" windowHeight="8790" xr2:uid="{45AB38FA-0D5F-4868-B952-27715728183D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>category</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t>backer_id</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Join Camppaign with backers</t>
+  </si>
+  <si>
+    <t>backer_campaigns</t>
+  </si>
+  <si>
+    <t>Count backers by campaign</t>
+  </si>
+  <si>
+    <t>backer_campaign_count</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Count backers per event in backers</t>
+  </si>
+  <si>
+    <t>Email contacts goal amount</t>
+  </si>
+  <si>
+    <t>email_contacts_remaining_goal_amount.csv</t>
+  </si>
+  <si>
+    <t>Life campaigns</t>
+  </si>
+  <si>
+    <t>goal_remaining</t>
   </si>
 </sst>
 </file>
@@ -186,6 +219,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B202F81-6744-17E4-E91B-529FB4859FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="1905000"/>
+          <a:ext cx="2171429" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75952</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9585F3-50BD-5A2F-4206-E155DA29BFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="5715000"/>
+          <a:ext cx="1980952" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686C7FA-467A-42F8-BFCE-F9FCC20ECF15}">
-  <dimension ref="A2:P7"/>
+  <dimension ref="A2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,8 +767,56 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resources/database_mapping.xlsx
+++ b/Resources/database_mapping.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Git\Crowdfunding-ETL\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB0143-F047-46DF-9DC3-1CF77614F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AB4BA-E6BE-4E36-92AB-20A29A3C4473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="2625" windowWidth="13590" windowHeight="8790" xr2:uid="{45AB38FA-0D5F-4868-B952-27715728183D}"/>
+    <workbookView xWindow="29340" yWindow="3405" windowWidth="21930" windowHeight="8790" xr2:uid="{45AB38FA-0D5F-4868-B952-27715728183D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Table verification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>category</t>
   </si>
@@ -140,10 +141,25 @@
     <t>email_contacts_remaining_goal_amount.csv</t>
   </si>
   <si>
-    <t>Life campaigns</t>
-  </si>
-  <si>
     <t>goal_remaining</t>
+  </si>
+  <si>
+    <t>Table from join</t>
+  </si>
+  <si>
+    <t>Table from backers table</t>
+  </si>
+  <si>
+    <t>Live campaigns</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Tables Created</t>
+  </si>
+  <si>
+    <t>backers_count_backers</t>
   </si>
 </sst>
 </file>
@@ -225,15 +241,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266429</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342629</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -241,7 +257,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B202F81-6744-17E4-E91B-529FB4859FC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F87BAC-DB5C-4919-AC10-46E05072F908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -257,7 +273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="1905000"/>
+          <a:off x="0" y="571500"/>
           <a:ext cx="2171429" cy="3476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -269,15 +285,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>75952</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152152</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>75786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -285,7 +301,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9585F3-50BD-5A2F-4206-E155DA29BFEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A862EE6-2C2A-487B-BBA5-0691A3156FA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -301,7 +317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="5715000"/>
+          <a:off x="2438400" y="571500"/>
           <a:ext cx="1980952" cy="3314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -611,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1686C7FA-467A-42F8-BFCE-F9FCC20ECF15}">
-  <dimension ref="A2:P50"/>
+  <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,9 +783,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -788,30 +807,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DA8AA1-CA5B-4FAA-A003-0B42F4B7367E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>34</v>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
